--- a/Traduzido/PTBR/Lang/PTBR/Dialog/Drama/demitas.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Dialog/Drama/demitas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\Drama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Dialog\Drama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7526B72-87DC-4EFB-B966-E948A2A14D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E59C17E-ED60-4E15-A445-058157657B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,34 +216,32 @@
     <t>end</t>
   </si>
   <si>
-    <t>Os deuses e as antigas entidades são arrogantes. Sua existência prolongada distorceu até mesmo os princípios do mundo.</t>
-  </si>
-  <si>
-    <t>Tenho algumas perguntas.</t>
-  </si>
-  <si>
-    <t>Tu buscas meu conhecimento?</t>
-  </si>
-  <si>
-    <t>Sobre a reserva do grimório</t>
-  </si>
-  <si>
     <t>(Voltar)</t>
   </si>
   <si>
-    <t xml:space="preserve">"Bem... tu estás intrigado com a magia, não estás?  
-Se há um grimório que desejas copiar, então deixe isso comigo. Decifrar cada runa de um tomo tão arcano requer tempo. Se eu considerar digno de minha atenção, talvez decida criar uma cópia.
-Há livros raros que até eu preciso me esforçar para reproduzir, mas, com tempo suficiente, uma cópia perfeita certamente estará ao meu alcance." </t>
-  </si>
-  <si>
-    <t>...#pc, tenho palavras para ti._x000D_
-_x000D_
-Em tempos remotos, quando ainda possuía a forma de um homem mortal, mergulhei profundamente nas runas e dominei a arte da escrita de feitiços. Uma habilidade rara, agora perdida para aqueles que habitam a terra.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desde que fiz deste lugar minha morada, busquei te observar de longe, mas se tu fores enfrentar Issizzle, meu conhecimento será de extrema necessidade._x000D_
-_x000D_
-...Se buscas o auxílio da magia, vem até mim.  </t>
+    <t>Deuses e seres antigos são arrogantes. Sua existência prolongada distorceu até mesmo os princípios do mundo.</t>
+  </si>
+  <si>
+    <t>Eu tenho algumas perguntas.</t>
+  </si>
+  <si>
+    <t>Você deseja o meu conhecimento?</t>
+  </si>
+  <si>
+    <t>Sobre a reserva de Livro de Feitiços</t>
+  </si>
+  <si>
+    <t>Bem... Você se interessa por magia?
+Se você tem um livro de magia que deseja reproduzir, deixe-o comigo. É uma tarefa árdua copiar livros de magia, pois cada runa deve ser decifrada palavra por palavra. Se eu o considerar digno de minha atenção, talvez eu considere adequado criar uma cópia.
+Algumas delas são difíceis de decifrar, mas com tempo suficiente deve ser possível duplicá-las.</t>
+  </si>
+  <si>
+    <t>... #pc? Tenho uma história para lhe contar.
+Certa vez, quando eu era um homem, aprofundei meu estudo das runas e dominei a arte de transcrever livros mágicos antigos. Essa é uma habilidade rara, que ninguém na Terra conhece atualmente.</t>
+  </si>
+  <si>
+    <t>Eu o tenho observado de longe desde que me instalei neste lugar, mas se você for confrontar Issizzle, precisará do meu conhecimento.
+... Se quiser ajuda com sua magia, venha até mim.</t>
   </si>
 </sst>
 </file>
@@ -529,10 +527,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L29" sqref="L29:L30"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5"/>
@@ -545,7 +543,8 @@
     <col min="7" max="7" width="8.85546875" customWidth="1"/>
     <col min="8" max="9" width="7.140625" customWidth="1"/>
     <col min="10" max="10" width="60.7109375" customWidth="1"/>
-    <col min="11" max="12" width="79.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="79.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="88.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -613,7 +612,7 @@
         <v>15</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -636,7 +635,7 @@
         <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -678,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -704,7 +703,7 @@
         <v>29</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -730,7 +729,7 @@
         <v>31</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:12">
